--- a/doc/复杂的xlsx版本_点名册.xlsx
+++ b/doc/复杂的xlsx版本_点名册.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\网页版幸运转盘\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA2E074-7F4D-4143-9983-99050EF35F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B84F40-47C4-4AAF-B4B0-F856618B137F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>男</t>
   </si>
@@ -142,6 +142,26 @@
   </si>
   <si>
     <t>201900000011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旺财</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>富贵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>201900000012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>201900000013</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -264,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -299,25 +319,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -611,7 +628,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -657,7 +676,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>20</v>
@@ -699,7 +718,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>23</v>
@@ -713,7 +732,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>24</v>
@@ -726,8 +745,8 @@
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>0</v>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>25</v>
@@ -762,10 +781,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -776,340 +795,356 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>18</v>
+      <c r="C12" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
+      <c r="A13" s="18">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
+      <c r="A14" s="18">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="17"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="17"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="16"/>
     </row>
     <row r="17" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
     </row>
     <row r="18" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
     </row>
     <row r="20" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="16"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="15"/>
     </row>
     <row r="21" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="17"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="16"/>
     </row>
     <row r="22" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="17"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="16"/>
     </row>
     <row r="23" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
     </row>
     <row r="24" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
     </row>
     <row r="26" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="17"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="16"/>
     </row>
     <row r="27" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
     </row>
     <row r="28" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="16"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15"/>
     </row>
     <row r="30" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
     </row>
     <row r="31" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="16"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15"/>
     </row>
     <row r="32" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="16"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
     </row>
     <row r="33" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="16"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
     </row>
     <row r="34" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="16"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
     </row>
     <row r="35" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="16"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15"/>
     </row>
     <row r="36" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="16"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15"/>
     </row>
     <row r="37" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="16"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
     </row>
     <row r="38" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="16"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15"/>
     </row>
     <row r="39" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="16"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15"/>
     </row>
     <row r="40" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="17"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="16"/>
     </row>
     <row r="41" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="17"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="16"/>
     </row>
     <row r="42" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="16"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="15"/>
     </row>
     <row r="43" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="16"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="15"/>
     </row>
     <row r="44" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="16"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="15"/>
     </row>
     <row r="45" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="17"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="16"/>
     </row>
     <row r="46" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="16"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="15"/>
     </row>
     <row r="47" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="16"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="15"/>
     </row>
     <row r="48" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="17"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="16"/>
     </row>
     <row r="49" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="17"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="16"/>
     </row>
     <row r="50" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="16"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="15"/>
     </row>
     <row r="51" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="16"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="15"/>
     </row>
     <row r="52" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="16"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="15"/>
     </row>
     <row r="53" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="17"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="16"/>
     </row>
     <row r="54" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="16"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="15"/>
     </row>
     <row r="55" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="17"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="16"/>
     </row>
     <row r="56" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="16"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="15"/>
     </row>
     <row r="57" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="16"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="15"/>
     </row>
     <row r="58" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="16"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="15"/>
     </row>
     <row r="59" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="16"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="15"/>
     </row>
     <row r="60" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="16"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="15"/>
     </row>
     <row r="61" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="16"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="15"/>
     </row>
     <row r="62" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="16"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="15"/>
     </row>
     <row r="63" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="16"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="15"/>
     </row>
     <row r="64" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="13"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="16"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="15"/>
     </row>
     <row r="65" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="16"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="15"/>
     </row>
     <row r="66" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
-      <c r="B66" s="12"/>
+      <c r="B66" s="9"/>
     </row>
     <row r="67" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
